--- a/data/steel/factories/DRI_factory-LC.xlsx
+++ b/data/steel/factories/DRI_factory-LC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\steel\factories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033D5485-3D13-0D41-81D3-19C96CC7FB0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="460" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10185" yWindow="465" windowWidth="20355" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="64">
   <si>
     <t>Inflow</t>
   </si>
@@ -199,12 +198,6 @@
   </si>
   <si>
     <t>steel scrap</t>
-  </si>
-  <si>
-    <t>waste heat</t>
-  </si>
-  <si>
-    <t>recovered heat</t>
   </si>
   <si>
     <t>heat</t>
@@ -231,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -318,7 +311,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,21 +622,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -660,7 +653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -674,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -688,7 +681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -702,7 +695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -716,7 +709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -730,7 +723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -744,9 +737,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -755,24 +748,24 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -793,30 +786,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -854,7 +847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -883,7 +876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -909,7 +902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -935,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -961,7 +954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>40</v>
       </c>
@@ -987,7 +980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1065,7 +1058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1091,7 +1084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -1105,19 +1098,19 @@
         <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -1169,36 +1162,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1206,73 +1196,47 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1282,21 +1246,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -1340,7 +1304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1351,7 +1315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1361,16 +1325,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3538C23E-0F90-1244-86BE-7A129EEC737D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1381,18 +1345,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>52</v>
       </c>

--- a/data/steel/factories/DRI_factory-LC.xlsx
+++ b/data/steel/factories/DRI_factory-LC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC07D4-F6D6-1449-B525-7238787221F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="465" windowWidth="20355" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="8440" yWindow="460" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="65">
   <si>
     <t>Inflow</t>
   </si>
@@ -182,18 +183,12 @@
     <t>simple_CO2storage</t>
   </si>
   <si>
-    <t>CO2__pure</t>
-  </si>
-  <si>
     <t>compressed CO2</t>
   </si>
   <si>
     <t>inflows</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>steel scrap (mill)</t>
   </si>
   <si>
@@ -219,12 +214,21 @@
   </si>
   <si>
     <t>simple_compression</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>CO2__bio (pure)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -311,7 +315,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,21 +626,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -653,7 +657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -667,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -681,7 +685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -695,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -709,7 +713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -723,7 +727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -737,9 +741,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -748,24 +752,24 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -786,30 +790,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -847,7 +851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -858,10 +862,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -873,10 +877,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -902,7 +906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -928,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -954,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>40</v>
       </c>
@@ -980,7 +984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -1095,22 +1099,22 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1121,13 +1125,13 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>47</v>
@@ -1136,33 +1140,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1173,22 +1177,22 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1196,47 +1200,73 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1246,21 +1276,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1293,7 +1323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1315,7 +1345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1325,16 +1355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1345,20 +1375,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
